--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\FCITools\R2019d\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E3781C-952E-4CED-858D-4411587CA781}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7FD84-A211-4868-89BB-A34DEA93B566}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Value</t>
   </si>
@@ -42,39 +42,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>8 % decrease in wood density following fertilization</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>t CO2e/ha</t>
-  </si>
-  <si>
-    <t>Kim et al. 2016</t>
-  </si>
-  <si>
-    <t>CO2 emission factor from urea added to soil</t>
-  </si>
-  <si>
-    <t>t CO2e/t Urea</t>
-  </si>
-  <si>
-    <t>CO2 flux when urea hydrolizes and is converted to ammonium and CO2 upon application</t>
-  </si>
-  <si>
-    <t>Fraction of urea that is N (460 kg N per t Urea)</t>
-  </si>
-  <si>
-    <t>Mel Scott 2010</t>
-  </si>
-  <si>
-    <t>Assumes 5 litres of diesel consumed per ha</t>
-  </si>
-  <si>
-    <t>Assumes 6 litres of aviation gas consumed per ha</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -90,45 +60,9 @@
     <t>General</t>
   </si>
   <si>
-    <t>Fertilization</t>
-  </si>
-  <si>
-    <t>UreaMolecularWeight</t>
-  </si>
-  <si>
-    <t>UreaRatioThatIsNitrogen</t>
-  </si>
-  <si>
-    <t>EmissionFromFertilizerProduction</t>
-  </si>
-  <si>
-    <t>EmissionFromLogisticsPre-application</t>
-  </si>
-  <si>
-    <t>EmissionFromLogisticsApplication</t>
-  </si>
-  <si>
-    <t>EmissionOfCO2UponApplicationOfUreaToSoil</t>
-  </si>
-  <si>
-    <t>EmissionOfN2O</t>
-  </si>
-  <si>
-    <t>FertilizationEffectOnWoodDensity</t>
-  </si>
-  <si>
-    <t>EmissionsFromFertilization</t>
-  </si>
-  <si>
-    <t>IPCC 2006</t>
-  </si>
-  <si>
     <t>CO2 equivalent radiative forcing of N2O</t>
   </si>
   <si>
-    <t>Molecular weight: (NH2)2CO is (14+2)*2+12+16=60.056</t>
-  </si>
-  <si>
     <t>Ratio_C_to_CO2</t>
   </si>
   <si>
@@ -141,9 +75,6 @@
     <t>Ratio of C mass to CO2 mass</t>
   </si>
   <si>
-    <t>Ratio_C_to_Urea</t>
-  </si>
-  <si>
     <t>CO2 equivalent radiative forcing of CH4</t>
   </si>
   <si>
@@ -223,33 +154,6 @@
   </si>
   <si>
     <t>Ratio of CH4 mass to C mass</t>
-  </si>
-  <si>
-    <t>FractionOfNAppliedThatIsEmittedAsN2OAsN</t>
-  </si>
-  <si>
-    <t>RatioN2OAsN_to_N2O</t>
-  </si>
-  <si>
-    <t>DoseUrea</t>
-  </si>
-  <si>
-    <t>kg Urea/ha</t>
-  </si>
-  <si>
-    <t>Emissions from manufacturing, transport prior to application and transport during application (0.3*1.9 tCO2e/ha)</t>
-  </si>
-  <si>
-    <t>Sonne (2006)</t>
-  </si>
-  <si>
-    <t>Standard FCI dose</t>
-  </si>
-  <si>
-    <t>EmissionsFromManufacturingAndTransport</t>
-  </si>
-  <si>
-    <t>tCO2e/ha</t>
   </si>
 </sst>
 </file>
@@ -700,29 +604,29 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A16" sqref="A16:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="88.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="88.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
@@ -731,42 +635,42 @@
         <v>1</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D2" s="15">
         <v>0.5</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D3" s="15">
         <f>12/(12+2*16)</f>
@@ -774,560 +678,394 @@
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D4" s="15">
         <v>3.6669999999999998</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D5" s="15">
         <v>2.3332999999999999</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D6" s="15">
         <v>1.3332999999999999</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D7" s="15">
         <v>25</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15">
         <v>28</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D9" s="15">
         <v>298</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="14" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="D10" s="15">
         <v>265</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="14" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D11" s="15">
         <v>3.3</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="14" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="5">
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5">
         <v>0.9</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="14" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5">
         <v>0.01</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="14" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5">
         <v>0.09</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="14" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="15">
-        <v>60.055999999999997</v>
-      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.2</v>
-      </c>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="15">
-        <f>28/60</f>
-        <v>0.46666666666666667</v>
-      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.01</v>
-      </c>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="17">
-        <f>44/28</f>
-        <v>1.5714285714285714</v>
-      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="16"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0.42</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>9</v>
-      </c>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1.3787000000000001E-2</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="15">
-        <v>1.5723000000000001E-2</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="15">
-        <f>D17*1/D3</f>
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>10</v>
-      </c>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="15">
-        <f>D18*D19*D10</f>
-        <v>1.2366666666666668</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>9</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0.92</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>4</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="15">
-        <v>1.76</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>6</v>
-      </c>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="15">
-        <v>430</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1336,7 +1074,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1345,7 +1083,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="18"/>
@@ -1354,7 +1092,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="D33" s="17"/>
@@ -1362,7 +1100,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="18"/>
@@ -1371,14 +1109,14 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="E35" s="16"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="20"/>
@@ -1387,7 +1125,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="18"/>
@@ -1396,7 +1134,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="18"/>
@@ -1405,7 +1143,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="18"/>
@@ -1414,7 +1152,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="18"/>
@@ -1423,7 +1161,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="18"/>
@@ -1432,184 +1170,184 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="2"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="2"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
       <c r="E46" s="2"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="4"/>
       <c r="D49" s="6"/>
       <c r="E49" s="2"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
       <c r="E50" s="2"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="7"/>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9751048-5907-43E6-8EC2-3A79ADA9235A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2AEC24-B986-4428-93AE-80BD6908041D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="852" windowWidth="13788" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Value</t>
   </si>
@@ -144,6 +144,54 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>WoodMoistureContent</t>
+  </si>
+  <si>
+    <t>ECCC 2020 Methods GHG</t>
+  </si>
+  <si>
+    <t>Moisture content of wood</t>
+  </si>
+  <si>
+    <t>BC MOE 2017</t>
+  </si>
+  <si>
+    <t>Wood Fuel Residential (0% moisture) Emission (kgCO2e/GJ)</t>
+  </si>
+  <si>
+    <t>Wood Fuel Industrial (50% moisture) Emission (kgCO2e/GJ)</t>
+  </si>
+  <si>
+    <t>Diesel Fuel Emission (kgCO2e/GJ)</t>
+  </si>
+  <si>
+    <t>Oil Emission (kgCO2e/GJ)</t>
+  </si>
+  <si>
+    <t>Coal Emission (kgCO2e/GJ)</t>
+  </si>
+  <si>
+    <t>Natural gas Emission (kgCO2e/GJ)</t>
+  </si>
+  <si>
+    <t>https://cs.mcgill.ca/~rwest/wikispeedia/wpcd/wp/w/Wood_fuel.htm#:~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg.</t>
+  </si>
+  <si>
+    <t>Wood Fuel Kiln-dried (GJ/kg)</t>
+  </si>
+  <si>
+    <t>Wood Fuel Residential (0% moisture) (GJ/kg)</t>
+  </si>
+  <si>
+    <t>Wood Fuel Industrial (50% moisture) (GJ/kg)</t>
+  </si>
+  <si>
+    <t>Diesel Fuel (GJ/L)</t>
+  </si>
+  <si>
+    <t>Natural Gas Energy Conversion Factor (GJ/m3)</t>
   </si>
 </sst>
 </file>
@@ -153,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +213,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,10 +243,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -250,8 +307,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,14 +656,14 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="88.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.109375" style="3" customWidth="1"/>
   </cols>
@@ -834,88 +899,162 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.5</v>
+      </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="23">
+        <v>3.8850000000000003E-2</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="23">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1.95E-2</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="23">
+        <v>49.87</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="13"/>
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="23">
+        <v>94.6</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23"/>
       <c r="E23" s="13"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="23">
+        <v>68.37</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="23">
+        <v>70.62</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="23">
+        <f>93.33+2.24</f>
+        <v>95.57</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13"/>
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="23">
+        <f>82.11+19.07</f>
+        <v>101.18</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1194,7 +1333,10 @@
       <c r="B89" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D21" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2AEC24-B986-4428-93AE-80BD6908041D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A9C412-2A92-4176-939B-0D9A60BB82DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>Value</t>
   </si>
@@ -158,40 +158,115 @@
     <t>BC MOE 2017</t>
   </si>
   <si>
-    <t>Wood Fuel Residential (0% moisture) Emission (kgCO2e/GJ)</t>
-  </si>
-  <si>
-    <t>Wood Fuel Industrial (50% moisture) Emission (kgCO2e/GJ)</t>
-  </si>
-  <si>
-    <t>Diesel Fuel Emission (kgCO2e/GJ)</t>
-  </si>
-  <si>
-    <t>Oil Emission (kgCO2e/GJ)</t>
-  </si>
-  <si>
-    <t>Coal Emission (kgCO2e/GJ)</t>
-  </si>
-  <si>
-    <t>Natural gas Emission (kgCO2e/GJ)</t>
-  </si>
-  <si>
     <t>https://cs.mcgill.ca/~rwest/wikispeedia/wpcd/wp/w/Wood_fuel.htm#:~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg.</t>
   </si>
   <si>
-    <t>Wood Fuel Kiln-dried (GJ/kg)</t>
-  </si>
-  <si>
-    <t>Wood Fuel Residential (0% moisture) (GJ/kg)</t>
-  </si>
-  <si>
-    <t>Wood Fuel Industrial (50% moisture) (GJ/kg)</t>
-  </si>
-  <si>
-    <t>Diesel Fuel (GJ/L)</t>
-  </si>
-  <si>
-    <t>Natural Gas Energy Conversion Factor (GJ/m3)</t>
+    <t>IEA website (https://www.iea.org/reports/iron-and-steel)</t>
+  </si>
+  <si>
+    <t>tCO2e m-3</t>
+  </si>
+  <si>
+    <t>Klein et al (2015)</t>
+  </si>
+  <si>
+    <t>kgCO2e/GJ</t>
+  </si>
+  <si>
+    <t>Emission Intensity Coal</t>
+  </si>
+  <si>
+    <t>Emission Intensity Oil</t>
+  </si>
+  <si>
+    <t>Emission Intensity Diesel</t>
+  </si>
+  <si>
+    <t>Emission Intensity Wood Fuel Industrial (50% moisture)</t>
+  </si>
+  <si>
+    <t>Emission Intensity Wood Fuel Residential (0% moisture)</t>
+  </si>
+  <si>
+    <t>Emission Intensity Concrete</t>
+  </si>
+  <si>
+    <t>tCO2e/t</t>
+  </si>
+  <si>
+    <t>t/m3</t>
+  </si>
+  <si>
+    <t>Cement to Concrete Mixing Ratio</t>
+  </si>
+  <si>
+    <t>Concrete Density</t>
+  </si>
+  <si>
+    <t>tCement/m3 concrete</t>
+  </si>
+  <si>
+    <t>Emission Intensity Natural Gas</t>
+  </si>
+  <si>
+    <t>Emission Intensity of Harvesting</t>
+  </si>
+  <si>
+    <t>GJ/L</t>
+  </si>
+  <si>
+    <t>Energy Content of Diesel Fuel</t>
+  </si>
+  <si>
+    <t>Energy Content of Natural Gas</t>
+  </si>
+  <si>
+    <t>Energy Content Wood Fuel Industrial (50% moisture)</t>
+  </si>
+  <si>
+    <t>GJ/kg</t>
+  </si>
+  <si>
+    <t>Energy Content Wood Fuel Residential (0% moisture)</t>
+  </si>
+  <si>
+    <t>Energy Content Wood Fuel Kiln-dried</t>
+  </si>
+  <si>
+    <t>Emission Intensity Steel</t>
+  </si>
+  <si>
+    <t>Emission Intensity Aluminum</t>
+  </si>
+  <si>
+    <t>Emission Intensity Plastic</t>
+  </si>
+  <si>
+    <t>Emission Intensity Textile</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Energy Content of Coal</t>
+  </si>
+  <si>
+    <t>Energy Content of Oil</t>
+  </si>
+  <si>
+    <t>GJ/t</t>
+  </si>
+  <si>
+    <t>tC tDM-1</t>
+  </si>
+  <si>
+    <t>Carbon Content of Coal</t>
+  </si>
+  <si>
+    <t>Carbon Content of Oil</t>
+  </si>
+  <si>
+    <t>Carbon Content of Natural Gas</t>
   </si>
 </sst>
 </file>
@@ -199,7 +274,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -261,58 +336,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,688 +730,806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="9" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="88.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="17">
         <v>0.5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="17">
         <f>12/(12+2*16)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="17">
         <v>3.6669999999999998</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="17">
         <v>2.3332999999999999</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="17">
         <v>1.3332999999999999</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="17">
         <v>25</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="17">
         <v>28</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="17">
         <v>298</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="17">
         <v>265</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="17">
         <v>3.3</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="17">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="17">
         <v>0.9</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="17">
         <v>0.01</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="17">
         <v>0.09</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="17">
         <v>0.5</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="23">
-        <v>3.8850000000000003E-2</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" t="s">
+    <row r="17" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="21">
+        <v>55</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="23">
+    </row>
+    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="21">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" t="s">
+      <c r="C18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="23">
+    </row>
+    <row r="19" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="21">
+        <v>25</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="21">
+        <v>44</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" t="s">
+      <c r="C21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="22" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="21">
+        <v>1.95E-2</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="21">
+        <v>49.87</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="21">
+        <v>94.6</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="21">
+        <v>68.37</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="21">
+        <v>70.62</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="23">
-        <v>1.95E-2</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="23">
-        <v>49.87</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="23">
-        <v>94.6</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="23">
-        <v>68.37</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="23">
-        <v>70.62</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="B30" s="21">
         <f>93.33+2.24</f>
         <v>95.57</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" t="s">
+      <c r="C30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="23">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="21">
         <f>82.11+19.07</f>
         <v>101.18</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" t="s">
+      <c r="C31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="15"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="21">
+        <f>72.5/1000</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="21">
+        <v>0</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="21">
+        <f>AVERAGE(6.3,67.1)/1000</f>
+        <v>3.6699999999999997E-2</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="2"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="7"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="7"/>
+      <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="7"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="7"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
+      <c r="B62" s="10"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="7"/>
+      <c r="B63" s="10"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="7"/>
+      <c r="B64" s="10"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
+      <c r="B65" s="10"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="7"/>
+      <c r="B66" s="10"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="7"/>
+      <c r="B67" s="10"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="7"/>
+      <c r="B68" s="10"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="7"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="7"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="7"/>
+      <c r="B71" s="10"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="7"/>
+      <c r="B72" s="10"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="7"/>
+      <c r="B73" s="10"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="7"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="7"/>
+      <c r="B75" s="10"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="7"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="7"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="7"/>
+      <c r="B79" s="10"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="7"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="7"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="7"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="7"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="7"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="7"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="7"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="7"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="7"/>
+      <c r="B89" s="10"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
+    <hyperlink ref="E23" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4186014-EDEA-4B2D-8DB4-D0AD4DADAF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2318BD4-A5F2-4E74-B8AC-29F45D75565B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
   <si>
     <t>Value</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>Carbon Content Coal</t>
+  </si>
+  <si>
+    <t>Energy Content of Hydrogen</t>
+  </si>
+  <si>
+    <t>https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels.aspx</t>
   </si>
 </sst>
 </file>
@@ -913,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,49 +1211,49 @@
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B21" s="10">
-        <v>49.87</v>
+        <v>130</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B22" s="10">
-        <v>282.7</v>
+        <v>49.87</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="10">
-        <v>68.37</v>
+        <v>282.7</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="10">
-        <v>70.62</v>
+        <v>68.37</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>43</v>
@@ -1258,77 +1264,80 @@
     </row>
     <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="10">
+        <v>70.62</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B26" s="10">
         <f>93.33+2.24</f>
         <v>95.57</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B27" s="10">
         <f>82.11+19.07</f>
         <v>101.18</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B28" s="10">
         <f>72.5/1000</f>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1.4</v>
-      </c>
       <c r="C28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="29" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="10">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="10">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>50</v>
@@ -1336,202 +1345,203 @@
     </row>
     <row r="31" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="10">
         <f>AVERAGE(6.3,67.1)/1000</f>
         <v>3.6699999999999997E-2</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B34" s="6">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.75</v>
+        <v>120</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.85</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="4">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="5">
         <v>0.75</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B38" s="10">
         <f>12/(12+2*16)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="10">
-        <v>3.6669999999999998</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" s="10">
-        <v>2.3332999999999999</v>
+        <v>3.6669999999999998</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" s="10">
-        <v>1.3332999999999999</v>
+        <v>2.3332999999999999</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="10">
+        <v>1.3332999999999999</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B42" s="10">
         <v>0.36499999999999999</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B43" s="31">
         <v>3600</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="30" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>0.27777800000000002</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="30">
-        <v>453</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>104</v>
-      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="30">
-        <f>1000/1.13</f>
-        <v>884.95575221238948</v>
-      </c>
-      <c r="D45" s="30"/>
+        <v>453</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="30">
         <f>1000/1.13</f>
@@ -1541,7 +1551,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="30">
         <f>1000/1.13</f>
@@ -1550,52 +1560,59 @@
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="30">
+        <f>1000/1.13</f>
+        <v>884.95575221238948</v>
+      </c>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -1651,6 +1668,9 @@
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2318BD4-A5F2-4E74-B8AC-29F45D75565B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F2175F-9283-457A-A22D-A2D9D4B29450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Parameter Review" sheetId="3" r:id="rId2"/>
+    <sheet name="Literature Review" sheetId="3" r:id="rId2"/>
+    <sheet name="LCA" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="226">
   <si>
     <t>Value</t>
   </si>
@@ -243,9 +244,6 @@
     <t>Emission intensity of coal:</t>
   </si>
   <si>
-    <t>Emission intensity of pellet plant operation:</t>
-  </si>
-  <si>
     <t>tCO2e/ODT</t>
   </si>
   <si>
@@ -406,15 +404,322 @@
   </si>
   <si>
     <t>https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels.aspx</t>
+  </si>
+  <si>
+    <t>Damon and Faaij (2006)</t>
+  </si>
+  <si>
+    <t>Best estimate from Parameter Review tab</t>
+  </si>
+  <si>
+    <t>Dones et al (2003), Sjolie and Solberg (2011)</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Hard Coal</t>
+  </si>
+  <si>
+    <t>Johnson et al. (2013)</t>
+  </si>
+  <si>
+    <t>Sjolie and Solberg (2011)</t>
+  </si>
+  <si>
+    <t>Hardwoods in Atlantic Canada</t>
+  </si>
+  <si>
+    <t>Emission intensity of pellet manufacturing:</t>
+  </si>
+  <si>
+    <t>Emission intensity of pellet harvesting (minus biogenic effects):</t>
+  </si>
+  <si>
+    <t>Emission intensity of pellet transporation:</t>
+  </si>
+  <si>
+    <t>EI Road Construction</t>
+  </si>
+  <si>
+    <t>EI Felling Process Logs</t>
+  </si>
+  <si>
+    <t>EI Skidding To Landing</t>
+  </si>
+  <si>
+    <t>EI Chipping</t>
+  </si>
+  <si>
+    <t>EI Site Prep</t>
+  </si>
+  <si>
+    <t>EI Sowing</t>
+  </si>
+  <si>
+    <t>EI Planting</t>
+  </si>
+  <si>
+    <t>EI Surveying</t>
+  </si>
+  <si>
+    <t>EI Hauling Logs To Mill</t>
+  </si>
+  <si>
+    <t>EI Loading Logs At Landing</t>
+  </si>
+  <si>
+    <t>EI Piling And Sorting Logs</t>
+  </si>
+  <si>
+    <t>EI Cruise And Recon</t>
+  </si>
+  <si>
+    <t>EI Unloading At Mill</t>
+  </si>
+  <si>
+    <t>EI Sawing Processing Lumber</t>
+  </si>
+  <si>
+    <t>EI Sawing Processing Plywood</t>
+  </si>
+  <si>
+    <t>EI Sawing Processing OSB</t>
+  </si>
+  <si>
+    <t>EI Sawing Processing MDF</t>
+  </si>
+  <si>
+    <t>EI Processing Pulp</t>
+  </si>
+  <si>
+    <t>EI Pellet Size Reduction</t>
+  </si>
+  <si>
+    <t>EI Pellet Drying</t>
+  </si>
+  <si>
+    <t>EI Pellet Pelletizing</t>
+  </si>
+  <si>
+    <t>EI Pellet Seiving</t>
+  </si>
+  <si>
+    <t>EI Lumber Mill To Market</t>
+  </si>
+  <si>
+    <t>EI LogExport Mill To Market</t>
+  </si>
+  <si>
+    <t>EI Plywood Mill To Market</t>
+  </si>
+  <si>
+    <t>EI OSB Mill To Market</t>
+  </si>
+  <si>
+    <t>EI MDF Mill To Market</t>
+  </si>
+  <si>
+    <t>EI Paper Mill To Market</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Prince George to Vancouver</t>
+  </si>
+  <si>
+    <t>Nautical miles</t>
+  </si>
+  <si>
+    <t>Vancouver to Liverpool</t>
+  </si>
+  <si>
+    <t>Vancouver to US</t>
+  </si>
+  <si>
+    <t>Vancouver to Tokyo</t>
+  </si>
+  <si>
+    <t>One way</t>
+  </si>
+  <si>
+    <t>Distance Forest To Mill (One Way)</t>
+  </si>
+  <si>
+    <t>Calculated based on distance</t>
+  </si>
+  <si>
+    <t>Sjolie Solberg (2011)</t>
+  </si>
+  <si>
+    <t>Sum aligned with Emission Intensity of Harvesting from Klein (2015)</t>
+  </si>
+  <si>
+    <t>See Literature Review Tabel</t>
+  </si>
+  <si>
+    <t>See Literature Review Table</t>
+  </si>
+  <si>
+    <t>tH2O/tLumber</t>
+  </si>
+  <si>
+    <t>Moisture content of lumber</t>
+  </si>
+  <si>
+    <t>Emission Intensity Transport Rail</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Rail Dest 1</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Rail Dest 2</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Rail Dest 3</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Truck Dest 1</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Truck Dest 2</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Truck Dest 3</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Rail Dest 1</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Rail Dest 2</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Rail Dest 3</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Truck Dest 1</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Truck Dest 2</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Truck Dest 3</t>
+  </si>
+  <si>
+    <t>Vancouver to Kansas City</t>
+  </si>
+  <si>
+    <t>Vancouver to Prince George</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Water Dest 1</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Water Dest 2</t>
+  </si>
+  <si>
+    <t>Fraction Solid Wood Product Water Dest 3</t>
+  </si>
+  <si>
+    <t>Fraction PelletExport Water Dest 1</t>
+  </si>
+  <si>
+    <t>Fraction PelletExport Water Dest 2</t>
+  </si>
+  <si>
+    <t>Fraction PelletExport Water Dest 3</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Water Dest 1</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Water Dest 2</t>
+  </si>
+  <si>
+    <t>Distance Solid Wood Product Water Dest 3</t>
+  </si>
+  <si>
+    <t>Distance PelletExport Water Dest 1</t>
+  </si>
+  <si>
+    <t>Distance PelletExport Water Dest 2</t>
+  </si>
+  <si>
+    <t>Distance PelletExport Water Dest 3</t>
+  </si>
+  <si>
+    <t>Distance Mill To Distribution Hub</t>
+  </si>
+  <si>
+    <t>Distance LogExport Water Dest 1</t>
+  </si>
+  <si>
+    <t>Fraction PelletExport Rail Dest 1</t>
+  </si>
+  <si>
+    <t>Fraction PelletExport Rail Dest 2</t>
+  </si>
+  <si>
+    <t>Fraction PelletExport Rail Dest 3</t>
+  </si>
+  <si>
+    <t>Moisture Content Lumber</t>
+  </si>
+  <si>
+    <t>Emission Intensity Transport Water (Bulk)</t>
+  </si>
+  <si>
+    <t>Emission Intensity Transport Water (Container)</t>
+  </si>
+  <si>
+    <t>Emission Intensity Transport Truck</t>
+  </si>
+  <si>
+    <t>Distance PelletExport Rail Dest 1</t>
+  </si>
+  <si>
+    <t>Distance PelletExport Rail Dest 2</t>
+  </si>
+  <si>
+    <t>Distance PelletExport Rail Dest 3</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>E Mining</t>
+  </si>
+  <si>
+    <t>E Transport Mine to Power Plant</t>
+  </si>
+  <si>
+    <t>E Power Plant Combustion Fossil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -495,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -579,6 +884,20 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,19 +1238,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.77734375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1083,7 +1405,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -1091,7 +1413,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="10">
         <v>2.4</v>
@@ -1102,16 +1424,16 @@
     </row>
     <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="10">
         <v>0.5</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -1119,16 +1441,16 @@
     </row>
     <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="10">
-        <v>55</v>
+        <v>214</v>
+      </c>
+      <c r="B14" s="39">
+        <v>0.1</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>179</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,10 +1458,10 @@
         <v>117</v>
       </c>
       <c r="B15" s="10">
-        <v>3.8300000000000001E-2</v>
+        <v>55</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
@@ -1150,18 +1472,21 @@
         <v>116</v>
       </c>
       <c r="B16" s="10">
-        <v>25</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B17" s="10">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>62</v>
@@ -1169,24 +1494,21 @@
     </row>
     <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B18" s="10">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="10">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>62</v>
@@ -1197,77 +1519,80 @@
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" s="10">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>39</v>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B21" s="10">
-        <v>130</v>
+        <v>19.5</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B22" s="10">
-        <v>49.87</v>
+        <v>130</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B23" s="10">
-        <v>282.7</v>
+        <v>49.87</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="10">
-        <v>68.37</v>
+        <v>282.7</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="10">
-        <v>70.62</v>
+        <v>68.37</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>43</v>
@@ -1278,77 +1603,80 @@
     </row>
     <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10">
+        <v>70.62</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B27" s="10">
         <f>93.33+2.24</f>
         <v>95.57</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B28" s="10">
         <f>82.11+19.07</f>
         <v>101.18</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B29" s="10">
         <f>72.5/1000</f>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1.4</v>
-      </c>
       <c r="C29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="10">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="10">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>50</v>
@@ -1356,325 +1684,1064 @@
     </row>
     <row r="32" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B34" s="10">
         <f>AVERAGE(6.3,67.1)/1000</f>
         <v>3.6699999999999997E-2</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="6">
-        <v>0.85</v>
+        <v>181</v>
+      </c>
+      <c r="B35" s="34">
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.75</v>
+        <v>215</v>
+      </c>
+      <c r="B36" s="34">
+        <v>7.3852646386495498E-6</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.75</v>
+      <c r="A37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="34">
+        <v>1.5215355805243445E-5</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="34">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B43" s="10">
         <f>12/(12+2*16)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B44" s="10">
         <v>3.6669999999999998</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B45" s="10">
         <v>2.3332999999999999</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B46" s="10">
         <v>1.3332999999999999</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="31">
+        <v>3600</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.27777800000000002</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="30">
+        <v>453</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="10">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="31">
-        <v>3600</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.27777800000000002</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="30">
-        <v>453</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="30">
+      <c r="B51" s="30">
         <f>1000/1.13</f>
         <v>884.95575221238948</v>
       </c>
-      <c r="D46" s="30"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="30">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="30">
         <f>1000/1.13</f>
         <v>884.95575221238948</v>
       </c>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="30">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="30">
         <f>1000/1.13</f>
         <v>884.95575221238948</v>
       </c>
-      <c r="D48" s="30"/>
-    </row>
-    <row r="49" spans="2:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="38">
+        <v>-999</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="38">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="38">
+        <f>'Literature Review'!B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="38">
+        <f>'Literature Review'!B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="38">
+        <f>'Literature Review'!B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="38">
+        <f>'Literature Review'!B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="38">
+        <v>-999</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="38">
+        <v>-999</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="38">
+        <v>-999</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="38">
+        <v>-999</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="38">
+        <v>-999</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="38">
+        <v>-999</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" s="39">
+        <v>0.45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="39">
+        <v>0.35</v>
+      </c>
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="C84" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="C86" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="39">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="39">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="39">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="36">
+        <v>0.88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" s="37"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="36">
+        <v>0.06</v>
+      </c>
+      <c r="C92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" t="s">
+        <v>164</v>
+      </c>
+      <c r="E92" s="37"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" s="36">
+        <v>0.06</v>
+      </c>
+      <c r="C93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" s="37"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="39">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="39">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="39">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97">
+        <v>150</v>
+      </c>
+      <c r="C97" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" s="37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98">
+        <v>800</v>
+      </c>
+      <c r="C98" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" t="s">
+        <v>167</v>
+      </c>
+      <c r="E98" s="37"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99">
+        <v>2000</v>
+      </c>
+      <c r="C99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" t="s">
+        <v>170</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100">
+        <v>4272</v>
+      </c>
+      <c r="C100" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" t="s">
+        <v>171</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101">
+        <v>11374</v>
+      </c>
+      <c r="C101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="39">
+        <v>2521</v>
+      </c>
+      <c r="C102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" s="39">
+        <v>800</v>
+      </c>
+      <c r="C103" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" s="39">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="39">
+        <v>800</v>
+      </c>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106" s="39">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="39">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108">
+        <v>4272</v>
+      </c>
+      <c r="C108" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" t="s">
+        <v>171</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109">
+        <v>11374</v>
+      </c>
+      <c r="C109" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" t="s">
+        <v>169</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110">
+        <v>2000</v>
+      </c>
+      <c r="C110" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111">
+        <v>4272</v>
+      </c>
+      <c r="C111" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="39">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="39">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="39">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
+    <hyperlink ref="E21" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1683,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F8569-D531-4078-8D88-C7FB33C04B5B}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1726,7 +2793,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="15">
         <v>0.28270000000000001</v>
@@ -1755,310 +2822,459 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
+        <v>0.2777</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16">
         <f>8.3/1000</f>
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="16">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="16">
         <f>27.8/1000</f>
         <v>2.7800000000000002E-2</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16">
+      <c r="C10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16">
         <f>31.8/1000</f>
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="C11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>38</v>
+      <c r="E11" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="14">
-        <v>1.95E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>39</v>
+        <v>131</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="22"/>
+        <v>134</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
         <f>AVERAGE(10.61,9.11)</f>
         <v>9.86</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26">
         <f>1.48/100*1000</f>
         <v>14.8</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24">
+      <c r="C20" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
         <f>(25.16+39.77)/1.82</f>
         <v>35.675824175824175</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="24">
+      <c r="C21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="24">
         <f>AVERAGE(6.3,67.1)</f>
         <v>36.699999999999996</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
+      <c r="C22" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="27">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="35">
+        <v>7.3852646386495498E-6</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="27">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="D27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="16">
-        <v>7.3852646386495524E-6</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="27">
+      <c r="B29" s="27">
         <f>65/1000/4272</f>
         <v>1.5215355805243445E-5</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E29" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="B31" s="22">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="22">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="E31" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
         <v>87</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14">
+        <v>1.95E-2</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{F54DCA0F-8D8B-4804-AB6F-2B1EE65DE656}"/>
+    <hyperlink ref="E36" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{095472B2-F608-4B56-BC36-BA3777870CEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE183C3-8D3F-4937-AB4A-8ECC3AF89559}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F2175F-9283-457A-A22D-A2D9D4B29450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4DBD45-0C39-4C13-A52B-C0C72AD4E451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Literature Review" sheetId="3" r:id="rId2"/>
-    <sheet name="LCA" sheetId="4" r:id="rId3"/>
+    <sheet name="Combustion Workbook" sheetId="5" r:id="rId3"/>
+    <sheet name="LCA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="305">
   <si>
     <t>Value</t>
   </si>
@@ -710,18 +711,276 @@
   </si>
   <si>
     <t>E Power Plant Combustion Fossil</t>
+  </si>
+  <si>
+    <t>Emission Fraction Coal As CO2</t>
+  </si>
+  <si>
+    <t>Emission Fraction Coal As CH4</t>
+  </si>
+  <si>
+    <t>Emission Fraction Coal As N2O</t>
+  </si>
+  <si>
+    <t>Emission Fraction Oil As CO2</t>
+  </si>
+  <si>
+    <t>Emission Fraction Oil As CH4</t>
+  </si>
+  <si>
+    <t>Emission Fraction Oil As N2O</t>
+  </si>
+  <si>
+    <t>Emission Fraction Natural Gas As CH4</t>
+  </si>
+  <si>
+    <t>Emission Fraction Natural Gas As N2O</t>
+  </si>
+  <si>
+    <t>Emission Fraction Natural Gas As CO2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GHG emissions from combustion of biomass.</t>
+    </r>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Input variables:</t>
+  </si>
+  <si>
+    <t>GWP</t>
+  </si>
+  <si>
+    <t>fcgadgets Biophysical Parameters Table</t>
+  </si>
+  <si>
+    <t>Fuel quantity (ODT)</t>
+  </si>
+  <si>
+    <t>Carbon dioxide mixing ratios</t>
+  </si>
+  <si>
+    <t>Open burning:</t>
+  </si>
+  <si>
+    <t>Parameters:</t>
+  </si>
+  <si>
+    <t>Fraction of carbon emitted</t>
+  </si>
+  <si>
+    <t>Kurz et al. (2009), NIR (2018)</t>
+  </si>
+  <si>
+    <t>Carbon content (tC/ODT)</t>
+  </si>
+  <si>
+    <t>Lamlom et al. ?</t>
+  </si>
+  <si>
+    <t>Emission (tCO2e)</t>
+  </si>
+  <si>
+    <t>Emission factor for N2O (kg N2O kg CO2-1)</t>
+  </si>
+  <si>
+    <t>Emission factor (g/kg fuel)</t>
+  </si>
+  <si>
+    <t>Kurz et al. (2009), NIR (2018) backed out from first principles and assuming carbon content as specified</t>
+  </si>
+  <si>
+    <t>Wood hypothetically burned as 100% CO2:</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Prescribed burning studies:</t>
+  </si>
+  <si>
+    <t>Aurell et al. (2019) Wet</t>
+  </si>
+  <si>
+    <t>Aurell et al. (2019) Dry</t>
+  </si>
+  <si>
+    <t>Aurell et al. (2019) Average</t>
+  </si>
+  <si>
+    <t>tC/t ash</t>
+  </si>
+  <si>
+    <t>Akagi et al. (2013) S. Carolina</t>
+  </si>
+  <si>
+    <t>Wildfire studies:</t>
+  </si>
+  <si>
+    <t>Urbanski et al. (2009) - Boreal Forest</t>
+  </si>
+  <si>
+    <t>Urbanski et al. (2009) - Temperate Forest</t>
+  </si>
+  <si>
+    <t>Urbanski et al. (2009) - Average</t>
+  </si>
+  <si>
+    <t>Lab studies:</t>
+  </si>
+  <si>
+    <t>McMeeking et al. (2009) - Montane</t>
+  </si>
+  <si>
+    <t>McMeeking et al. (2009) - Coastal Plain</t>
+  </si>
+  <si>
+    <t>McMeeking et al. (2009) - Boreal</t>
+  </si>
+  <si>
+    <t>Wood fuel / wood waste (industrial combustion):</t>
+  </si>
+  <si>
+    <t>NIR</t>
+  </si>
+  <si>
+    <t>Pellet stove:</t>
+  </si>
+  <si>
+    <t>Coal:</t>
+  </si>
+  <si>
+    <t>Emission factor (kg/mmBtu)</t>
+  </si>
+  <si>
+    <t>Bituminous (https://www.epa.gov/sites/default/files/2015-07/documents/emission-factors_2014.pdf)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Natural gas:</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/default/files/2015-07/documents/emission-factors_2014.pdf</t>
+  </si>
+  <si>
+    <t>Oil:</t>
+  </si>
+  <si>
+    <t>See Combustion Workbook</t>
+  </si>
+  <si>
+    <t>Radiation Absorption Efficiency CO2</t>
+  </si>
+  <si>
+    <t>Radiation Absorption Efficiency CH4</t>
+  </si>
+  <si>
+    <t>Radiation Absorption Efficiency N2O</t>
+  </si>
+  <si>
+    <t>Myhre et al. 1998</t>
+  </si>
+  <si>
+    <t>tC ppmv C-1</t>
+  </si>
+  <si>
+    <t>Pre-industrial Reference Abundance CO2</t>
+  </si>
+  <si>
+    <t>ppmv</t>
+  </si>
+  <si>
+    <t>Atmospheric Density CO2</t>
+  </si>
+  <si>
+    <t>https://iea.blob.core.windows.net/assets/1028bee0-2da1-4d68-8b0a-9e5e03e93690/essentials3.pdf</t>
+  </si>
+  <si>
+    <t>Consistent with DRAX Power Plant numbers for 2016 (7.25 MODT pellets, 45.7 PJ/yr, 6.3 GJ/ODT = 0.35 x energy content of pellets)</t>
+  </si>
+  <si>
+    <t>Miedema et al 2017</t>
+  </si>
+  <si>
+    <t>10% pellets</t>
+  </si>
+  <si>
+    <t>http://www.basisbioenergy.eu/fileadmin/BASIS/D3.5_Report_on_conversion_efficiency_of_biomass.pdf</t>
+  </si>
+  <si>
+    <t>Electrical Conversion Efficiency of Coal Electricity Plant</t>
+  </si>
+  <si>
+    <t>Electrical Conversion Efficiency of Coal-Pellet Co-firing Electricity Plant</t>
+  </si>
+  <si>
+    <t>Electrical Conversion Efficiency of Pellet Electricity Plant (&lt;25MW)</t>
+  </si>
+  <si>
+    <t>Electrical Conversion Efficiency of Pellet Electricity Plant (&gt;25MW)</t>
+  </si>
+  <si>
+    <t>Electrical Conversion Efficiency of Coal Electricity Plant (US Average)</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/fecm/transformative-power-systems</t>
+  </si>
+  <si>
+    <t>Older, smaller facilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +1025,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,8 +1052,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -795,12 +1067,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -897,6 +1184,37 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1238,19 +1556,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" style="11" customWidth="1"/>
     <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.77734375" style="1" customWidth="1"/>
@@ -2717,7 +3035,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>219</v>
       </c>
@@ -2728,7 +3046,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
@@ -2737,14 +3055,246 @@
       </c>
       <c r="C114" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="5">
+        <f>'Combustion Workbook'!B41/100</f>
+        <v>0.88099735549678881</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" s="5">
+        <f>'Combustion Workbook'!C41/100</f>
+        <v>0.1038911975821685</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="5">
+        <f>'Combustion Workbook'!D41/100</f>
+        <v>1.5111446921042691E-2</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="5">
+        <f>'Combustion Workbook'!B47/100</f>
+        <v>0.94752186588921294</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" s="5">
+        <f>'Combustion Workbook'!C47/100</f>
+        <v>4.3731778425655982E-2</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="5">
+        <f>'Combustion Workbook'!D47/100</f>
+        <v>8.7463556851311956E-3</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="5">
+        <f>'Combustion Workbook'!B44/100</f>
+        <v>0.97968980797636629</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" s="5">
+        <f>'Combustion Workbook'!C44/100</f>
+        <v>1.8463810930576068E-2</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" s="5">
+        <f>'Combustion Workbook'!D44/100</f>
+        <v>1.846381093057607E-3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B124" s="5">
+        <v>5.35</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B125" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B127" s="49">
+        <f>2.13*10^9</f>
+        <v>2130000000</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B128" s="5">
+        <v>360</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E129" s="50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E21" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
+    <hyperlink ref="E129" r:id="rId2" xr:uid="{CA570361-8F15-4169-8C6F-BC3B21E98FBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2752,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F8569-D531-4078-8D88-C7FB33C04B5B}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3239,6 +3789,870 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592C35CC-81EE-4780-A307-9CB18E550D56}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.44140625" customWidth="1"/>
+    <col min="2" max="5" width="9.33203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="37" style="36" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="40">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40">
+        <v>28</v>
+      </c>
+      <c r="D3" s="40">
+        <v>265</v>
+      </c>
+      <c r="E3" s="40">
+        <v>3.3</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="40">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1.333</v>
+      </c>
+      <c r="E4" s="40">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="H5" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0.09</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="36">
+        <f>0.5*I3</f>
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="40">
+        <f>$I$6*B6*B4*B3</f>
+        <v>1.65015</v>
+      </c>
+      <c r="C7" s="40">
+        <f>$I$6*C6*C4*C3</f>
+        <v>0.18662000000000001</v>
+      </c>
+      <c r="D7" s="40">
+        <f>I7*B7*D3</f>
+        <v>7.4339257500000006E-2</v>
+      </c>
+      <c r="E7" s="40">
+        <f>$I$6*E6*E4*E3</f>
+        <v>0.34645049999999999</v>
+      </c>
+      <c r="F7" s="47">
+        <f>SUM(B7:E7)</f>
+        <v>2.2575597575000002</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="48">
+        <f>0.17*0.001</f>
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="40">
+        <f>$I$3*$I$6*B6*B4*1000</f>
+        <v>1650.15</v>
+      </c>
+      <c r="C8" s="40">
+        <f>$I$3*$I$6*C6*C4*1000</f>
+        <v>6.665</v>
+      </c>
+      <c r="D8" s="40">
+        <f>I7*B8</f>
+        <v>0.28052550000000004</v>
+      </c>
+      <c r="E8" s="40">
+        <f>$I$3*$I$6*E6*E4*1000</f>
+        <v>104.98500000000001</v>
+      </c>
+      <c r="F8" s="47">
+        <f>C7/F7*100</f>
+        <v>8.2664478483910084</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="40">
+        <v>1</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="40">
+        <f>$I$6*B10*B4*B$3</f>
+        <v>1.8334999999999999</v>
+      </c>
+      <c r="C11" s="40">
+        <f>$I$6*C10*C4*C$3</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <f>$I$6*E10*E4*E$3</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="47">
+        <f>SUM(B11:E11)</f>
+        <v>1.8334999999999999</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="40">
+        <v>1689</v>
+      </c>
+      <c r="C13" s="40">
+        <v>5.7</v>
+      </c>
+      <c r="E13" s="40">
+        <v>82</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="40">
+        <v>1785</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E14" s="40">
+        <v>29</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="40">
+        <f>AVERAGE(B13:B14)</f>
+        <v>1737</v>
+      </c>
+      <c r="C15" s="40">
+        <f>AVERAGE(C13:C14)</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="E15" s="40">
+        <f>AVERAGE(E13:E14)</f>
+        <v>55.5</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="40">
+        <f>B15/1000*B$3*$I$3</f>
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="C16" s="40">
+        <f>C15/1000*C$3*$I$3</f>
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="E16" s="40">
+        <f>E15/1000*E$3*$I$3</f>
+        <v>0.18314999999999998</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="40">
+        <v>1675</v>
+      </c>
+      <c r="C17" s="40">
+        <v>2.66</v>
+      </c>
+      <c r="E17" s="40">
+        <v>79</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="40">
+        <f>B17/1000*B3*$I$3</f>
+        <v>1.675</v>
+      </c>
+      <c r="C18" s="40">
+        <f>C17/1000*C3*$I$3</f>
+        <v>7.4480000000000005E-2</v>
+      </c>
+      <c r="E18" s="40">
+        <f>E17/1000*E3*$I$3</f>
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1604</v>
+      </c>
+      <c r="C20" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="D20" s="40">
+        <f>(0.14+0.4)/2</f>
+        <v>0.27</v>
+      </c>
+      <c r="E20" s="40">
+        <v>105</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="40">
+        <v>1619</v>
+      </c>
+      <c r="C21" s="40">
+        <v>3.4</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0.16</v>
+      </c>
+      <c r="E21" s="40">
+        <v>89.6</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="40">
+        <f>AVERAGE(B20:B21)</f>
+        <v>1611.5</v>
+      </c>
+      <c r="C22" s="40">
+        <f>AVERAGE(C20:C21)</f>
+        <v>3.95</v>
+      </c>
+      <c r="D22" s="40">
+        <f>AVERAGE(D20:D21)</f>
+        <v>0.21500000000000002</v>
+      </c>
+      <c r="E22" s="40">
+        <f>AVERAGE(E20:E21)</f>
+        <v>97.3</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="40">
+        <f>B20/1000*$I$3*B3</f>
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="C23" s="40">
+        <f>C20/1000*$I$3*C3</f>
+        <v>0.126</v>
+      </c>
+      <c r="D23" s="40">
+        <f>D20/1000*$I$3*D3</f>
+        <v>7.1550000000000002E-2</v>
+      </c>
+      <c r="E23" s="40">
+        <f>E20/1000*$I$3*E3</f>
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="F23" s="43">
+        <f>SUM(B23:E23)</f>
+        <v>2.14805</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="40">
+        <f>B21/1000*$I$3*B3</f>
+        <v>1.619</v>
+      </c>
+      <c r="C24" s="40">
+        <f>C21/1000*$I$3*C3</f>
+        <v>9.5199999999999993E-2</v>
+      </c>
+      <c r="D24" s="40">
+        <f>D21/1000*$I$3*D3</f>
+        <v>4.24E-2</v>
+      </c>
+      <c r="E24" s="40">
+        <f>E21/1000*$I$3*E3</f>
+        <v>0.29568</v>
+      </c>
+      <c r="F24" s="43">
+        <f>SUM(B24:E24)</f>
+        <v>2.0522800000000001</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="40">
+        <f>B22/1000*$I$3*B3</f>
+        <v>1.6114999999999999</v>
+      </c>
+      <c r="C25" s="40">
+        <f>C22/1000*$I$3*C3</f>
+        <v>0.1106</v>
+      </c>
+      <c r="D25" s="40">
+        <f>D22/1000*$I$3*D3</f>
+        <v>5.6975000000000005E-2</v>
+      </c>
+      <c r="E25" s="40">
+        <f>E22/1000*$I$3*E3</f>
+        <v>0.32108999999999999</v>
+      </c>
+      <c r="F25" s="43">
+        <f>SUM(B25:E25)</f>
+        <v>2.1001650000000001</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="40">
+        <v>1552</v>
+      </c>
+      <c r="C27" s="40">
+        <v>3.7</v>
+      </c>
+      <c r="E27" s="40">
+        <v>92</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="40">
+        <v>1632</v>
+      </c>
+      <c r="C28" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="E28" s="40">
+        <v>93.2</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="40">
+        <v>1311</v>
+      </c>
+      <c r="C29" s="40">
+        <v>1.4</v>
+      </c>
+      <c r="E29" s="40">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="40">
+        <f t="shared" ref="B30:C32" si="0">B27/1000*B$3*$I$3</f>
+        <v>1.552</v>
+      </c>
+      <c r="C30" s="40">
+        <f t="shared" si="0"/>
+        <v>0.1036</v>
+      </c>
+      <c r="E30" s="40">
+        <f>E27/1000*E$3*$I$3</f>
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="40">
+        <f t="shared" si="0"/>
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="C31" s="40">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E31" s="40">
+        <f>E28/1000*E$3*$I$3</f>
+        <v>0.30756</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="40">
+        <f t="shared" si="0"/>
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="C32" s="40">
+        <f t="shared" si="0"/>
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E32" s="40">
+        <f>E29/1000*E$3*$I$3</f>
+        <v>0.23297999999999996</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="40">
+        <v>1715</v>
+      </c>
+      <c r="C34" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="40">
+        <f>B3*B34/1000*$I$3</f>
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="C35" s="40">
+        <f>C3*C34/1000*$I$3</f>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="D35" s="40">
+        <f>D3*D34/1000*$I$3</f>
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="F35" s="47">
+        <f>SUM(B35:E35)</f>
+        <v>1.7363500000000001</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="40">
+        <v>1652</v>
+      </c>
+      <c r="C37" s="40">
+        <v>4.12</v>
+      </c>
+      <c r="D37" s="40">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="40">
+        <f>$I$3*B37/1000*B3</f>
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="C38" s="40">
+        <f>$I$3*C37/1000*C3</f>
+        <v>0.11536000000000002</v>
+      </c>
+      <c r="D38" s="40">
+        <f>$I$3*D37/1000*D3</f>
+        <v>1.5635E-2</v>
+      </c>
+      <c r="F38" s="47">
+        <f>SUM(B38:E38)</f>
+        <v>1.7829950000000001</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" s="40">
+        <v>93.28</v>
+      </c>
+      <c r="C40" s="40">
+        <v>11</v>
+      </c>
+      <c r="D40" s="40">
+        <v>1.6</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" s="40">
+        <f>B40/SUM(B40:D40)*100</f>
+        <v>88.099735549678883</v>
+      </c>
+      <c r="C41" s="40">
+        <f>C40/SUM(B40:D40)*100</f>
+        <v>10.38911975821685</v>
+      </c>
+      <c r="D41" s="40">
+        <f>D40/SUM(B40:D40)*100</f>
+        <v>1.511144692104269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="40">
+        <v>53.06</v>
+      </c>
+      <c r="C43" s="40">
+        <v>1</v>
+      </c>
+      <c r="D43" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="40">
+        <f>B43/SUM(B43:D43)*100</f>
+        <v>97.968980797636632</v>
+      </c>
+      <c r="C44" s="40">
+        <f>C43/SUM(B43:D43)*100</f>
+        <v>1.8463810930576068</v>
+      </c>
+      <c r="D44" s="40">
+        <f>D43/SUM(B43:D43)*100</f>
+        <v>0.18463810930576069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="40">
+        <v>65</v>
+      </c>
+      <c r="C46" s="40">
+        <v>3</v>
+      </c>
+      <c r="D46" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="40">
+        <f>B46/SUM(B46:D46)*100</f>
+        <v>94.75218658892129</v>
+      </c>
+      <c r="C47" s="40">
+        <f>C46/SUM(B46:D46)*100</f>
+        <v>4.3731778425655978</v>
+      </c>
+      <c r="D47" s="40">
+        <f>D46/SUM(B46:D46)*100</f>
+        <v>0.87463556851311952</v>
+      </c>
+      <c r="G47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE183C3-8D3F-4937-AB4A-8ECC3AF89559}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4DBD45-0C39-4C13-A52B-C0C72AD4E451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980233C-E783-4ADC-BFAD-4BA565B4A1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,9 +937,6 @@
     <t>https://iea.blob.core.windows.net/assets/1028bee0-2da1-4d68-8b0a-9e5e03e93690/essentials3.pdf</t>
   </si>
   <si>
-    <t>Consistent with DRAX Power Plant numbers for 2016 (7.25 MODT pellets, 45.7 PJ/yr, 6.3 GJ/ODT = 0.35 x energy content of pellets)</t>
-  </si>
-  <si>
     <t>Miedema et al 2017</t>
   </si>
   <si>
@@ -968,6 +965,9 @@
   </si>
   <si>
     <t>Older, smaller facilities</t>
+  </si>
+  <si>
+    <t>0.35 Consistent with DRAX Power Plant numbers for 2016 (7.25 MODT pellets, 45.7 PJ/yr, 6.3 GJ/ODT = 0.35 x energy content of pellets)</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1562,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A131" sqref="A131"/>
+      <selection pane="bottomRight" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3226,13 +3226,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B129" s="5">
         <v>0.35</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E129" s="50" t="s">
         <v>293</v>
@@ -3240,52 +3240,52 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B130" s="5">
         <v>0.27</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B131" s="5">
         <v>0.42</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B132" s="5">
         <v>0.33</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B133" s="5">
         <v>0.33</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980233C-E783-4ADC-BFAD-4BA565B4A1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E52C3A9-ACB2-47D9-802A-FB1E28EE11CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Literature Review" sheetId="3" r:id="rId2"/>
     <sheet name="Combustion Workbook" sheetId="5" r:id="rId3"/>
-    <sheet name="LCA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="303">
   <si>
     <t>Value</t>
   </si>
@@ -696,21 +695,6 @@
   </si>
   <si>
     <t>Distance PelletExport Rail Dest 3</t>
-  </si>
-  <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>E Mining</t>
-  </si>
-  <si>
-    <t>E Transport Mine to Power Plant</t>
-  </si>
-  <si>
-    <t>E Power Plant Combustion Fossil</t>
   </si>
   <si>
     <t>Emission Fraction Coal As CO2</t>
@@ -968,6 +952,15 @@
   </si>
   <si>
     <t>0.35 Consistent with DRAX Power Plant numbers for 2016 (7.25 MODT pellets, 45.7 PJ/yr, 6.3 GJ/ODT = 0.35 x energy content of pellets)</t>
+  </si>
+  <si>
+    <t>Natural Gas Mulitiplier m3 to GJ</t>
+  </si>
+  <si>
+    <t>GJ m3</t>
+  </si>
+  <si>
+    <t>https://energyrates.ca/natural-gas-conversion-gigajoule-m3/#:~:text=For%201%20m3%20of,an%20m3%20of%20gas.</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1215,6 +1208,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1556,13 +1552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B130" sqref="B130"/>
+      <selection pane="bottomRight" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,233 +3055,247 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B115" s="5">
         <f>'Combustion Workbook'!B41/100</f>
         <v>0.88099735549678881</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B116" s="5">
         <f>'Combustion Workbook'!C41/100</f>
         <v>0.1038911975821685</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B117" s="5">
         <f>'Combustion Workbook'!D41/100</f>
         <v>1.5111446921042691E-2</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B118" s="5">
         <f>'Combustion Workbook'!B47/100</f>
         <v>0.94752186588921294</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B119" s="5">
         <f>'Combustion Workbook'!C47/100</f>
         <v>4.3731778425655982E-2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B120" s="5">
         <f>'Combustion Workbook'!D47/100</f>
         <v>8.7463556851311956E-3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B121" s="5">
         <f>'Combustion Workbook'!B44/100</f>
         <v>0.97968980797636629</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B122" s="5">
         <f>'Combustion Workbook'!C44/100</f>
         <v>1.8463810930576068E-2</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B123" s="5">
         <f>'Combustion Workbook'!D44/100</f>
         <v>1.846381093057607E-3</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B124" s="5">
         <v>5.35</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B125" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B126" s="5">
         <v>0.12</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B127" s="49">
         <f>2.13*10^9</f>
         <v>2130000000</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B128" s="5">
         <v>360</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B129" s="5">
         <v>0.35</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B130" s="5">
         <v>0.27</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B131" s="5">
         <v>0.42</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B132" s="5">
         <v>0.33</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B133" s="5">
         <v>0.33</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B134" s="51">
+        <v>3.73E-2</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F8569-D531-4078-8D88-C7FB33C04B5B}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3792,7 +3802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592C35CC-81EE-4780-A307-9CB18E550D56}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -3808,38 +3818,38 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="H2" s="45" t="s">
         <v>238</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B3" s="40">
         <v>1</v>
@@ -3854,10 +3864,10 @@
         <v>3.3</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I3" s="46">
         <v>1</v>
@@ -3865,7 +3875,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B4" s="40">
         <v>3.6669999999999998</v>
@@ -3877,27 +3887,27 @@
         <v>2.3330000000000002</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F5" s="47"/>
       <c r="H5" s="45" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I5" s="45" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B6" s="40">
         <v>0.9</v>
@@ -3910,22 +3920,22 @@
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I6" s="36">
         <f>0.5*I3</f>
         <v>0.5</v>
       </c>
       <c r="J6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B7" s="40">
         <f>$I$6*B6*B4*B3</f>
@@ -3948,10 +3958,10 @@
         <v>2.2575597575000002</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I7" s="48">
         <f>0.17*0.001</f>
@@ -3963,7 +3973,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B8" s="40">
         <f>$I$3*$I$6*B6*B4*1000</f>
@@ -3986,18 +3996,18 @@
         <v>8.2664478483910084</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B10" s="40">
         <v>1</v>
@@ -4010,12 +4020,12 @@
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B11" s="40">
         <f>$I$6*B10*B4*B$3</f>
@@ -4037,17 +4047,17 @@
         <v>1.8334999999999999</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B13" s="40">
         <v>1689</v>
@@ -4059,12 +4069,12 @@
         <v>82</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B14" s="40">
         <v>1785</v>
@@ -4076,12 +4086,12 @@
         <v>29</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B15" s="40">
         <f>AVERAGE(B13:B14)</f>
@@ -4096,18 +4106,18 @@
         <v>55.5</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I15" s="36">
         <v>0.16500000000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B16" s="40">
         <f>B15/1000*B$3*$I$3</f>
@@ -4122,12 +4132,12 @@
         <v>0.18314999999999998</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B17" s="40">
         <v>1675</v>
@@ -4139,12 +4149,12 @@
         <v>79</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B18" s="40">
         <f>B17/1000*B3*$I$3</f>
@@ -4159,17 +4169,17 @@
         <v>0.26069999999999999</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B20" s="40">
         <v>1604</v>
@@ -4185,12 +4195,12 @@
         <v>105</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B21" s="40">
         <v>1619</v>
@@ -4205,12 +4215,12 @@
         <v>89.6</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B22" s="40">
         <f>AVERAGE(B20:B21)</f>
@@ -4229,12 +4239,12 @@
         <v>97.3</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B23" s="40">
         <f>B20/1000*$I$3*B3</f>
@@ -4257,12 +4267,12 @@
         <v>2.14805</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B24" s="40">
         <f>B21/1000*$I$3*B3</f>
@@ -4285,12 +4295,12 @@
         <v>2.0522800000000001</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B25" s="40">
         <f>B22/1000*$I$3*B3</f>
@@ -4313,17 +4323,17 @@
         <v>2.1001650000000001</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B27" s="40">
         <v>1552</v>
@@ -4335,12 +4345,12 @@
         <v>92</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B28" s="40">
         <v>1632</v>
@@ -4352,12 +4362,12 @@
         <v>93.2</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B29" s="40">
         <v>1311</v>
@@ -4369,12 +4379,12 @@
         <v>70.599999999999994</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B30" s="40">
         <f t="shared" ref="B30:C32" si="0">B27/1000*B$3*$I$3</f>
@@ -4390,12 +4400,12 @@
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="41" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B31" s="40">
         <f t="shared" si="0"/>
@@ -4411,12 +4421,12 @@
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="41" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B32" s="40">
         <f t="shared" si="0"/>
@@ -4432,17 +4442,17 @@
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="41" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B34" s="40">
         <v>1715</v>
@@ -4454,12 +4464,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B35" s="40">
         <f>B3*B34/1000*$I$3</f>
@@ -4478,18 +4488,18 @@
         <v>1.7363500000000001</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B37" s="40">
         <v>1652</v>
@@ -4502,12 +4512,12 @@
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="41" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B38" s="40">
         <f>$I$3*B37/1000*B3</f>
@@ -4526,17 +4536,17 @@
         <v>1.7829950000000001</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="42" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B40" s="40">
         <v>93.28</v>
@@ -4548,12 +4558,12 @@
         <v>1.6</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B41" s="40">
         <f>B40/SUM(B40:D40)*100</f>
@@ -4570,12 +4580,12 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B43" s="40">
         <v>53.06</v>
@@ -4587,12 +4597,12 @@
         <v>0.1</v>
       </c>
       <c r="G43" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B44" s="40">
         <f>B43/SUM(B43:D43)*100</f>
@@ -4609,12 +4619,12 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="42" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B46" s="40">
         <v>65</v>
@@ -4626,12 +4636,12 @@
         <v>0.6</v>
       </c>
       <c r="G46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B47" s="40">
         <f>B46/SUM(B46:D46)*100</f>
@@ -4646,47 +4656,6 @@
         <v>0.87463556851311952</v>
       </c>
       <c r="G47"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE183C3-8D3F-4937-AB4A-8ECC3AF89559}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E52C3A9-ACB2-47D9-802A-FB1E28EE11CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F41F0C-4243-40EB-8448-2CAAD7842C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1296" yWindow="0" windowWidth="14304" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1232,9 +1232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1272,9 +1272,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1307,26 +1307,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1359,26 +1342,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1555,10 +1521,10 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C136" sqref="C136"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,7 +1688,7 @@
         <v>98</v>
       </c>
       <c r="B11" s="1">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD3F14E-66A0-473F-85E2-56B147CBA5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2B711-0B3D-43C6-91FF-864E8342A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="221">
   <si>
     <t>Units</t>
   </si>
@@ -679,6 +679,24 @@
   </si>
   <si>
     <t>Best Estimate</t>
+  </si>
+  <si>
+    <t>Discount Rate Emissions</t>
+  </si>
+  <si>
+    <t>Drever et al 2001</t>
+  </si>
+  <si>
+    <t>Area_EarthSurface</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Betts 2001, Rotenberg and Yakir 2010</t>
+  </si>
+  <si>
+    <t>Area of the earth's surface</t>
   </si>
 </sst>
 </file>
@@ -743,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -817,6 +835,9 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1197,26 +1218,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="19.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
@@ -1233,255 +1254,258 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="26">
+        <v>510000000000000</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B3" s="17">
         <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="17">
-        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="17">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B5" s="17">
         <v>298</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="17">
-        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17">
+        <v>265</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B7" s="17">
         <v>3.3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B8" s="10">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="10">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>0.43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B13" s="10">
         <v>2.4</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B14" s="10">
         <v>0.5</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B15" s="22">
         <v>0.1</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B16" s="10">
         <v>55</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="10">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="10">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B18" s="10">
         <v>25</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="10">
-        <v>44</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B19" s="10">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="10">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>59</v>
@@ -1490,82 +1514,82 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="10">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B22" s="10">
-        <v>130</v>
+        <v>19.5</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="10">
+        <v>130</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B24" s="10">
         <v>49.87</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="10">
-        <v>282.7</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="10">
-        <v>68.37</v>
+        <v>282.7</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="10">
-        <v>70.62</v>
+        <v>68.37</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>41</v>
@@ -1574,147 +1598,147 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="10">
+        <v>70.62</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B28" s="10">
         <f>93.33+2.24</f>
         <v>95.57</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B29" s="10">
         <f>82.11+19.07</f>
         <v>101.18</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B30" s="10">
         <f>72.5/1000</f>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1.4</v>
-      </c>
       <c r="C30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="10">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="10">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B35" s="10">
         <f>AVERAGE(6.3,67.1)/1000</f>
         <v>3.6699999999999997E-2</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="18">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B36" s="18">
-        <v>7.3852646386495498E-6</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="18">
-        <v>1.5215355805243445E-5</v>
+        <v>7.3852646386495498E-6</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>63</v>
@@ -1723,189 +1747,193 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="18">
-        <v>6.3999999999999997E-5</v>
+        <v>1.5215355805243445E-5</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="18">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B40" s="6">
         <v>0.5</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="6">
-        <v>0.85</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.75</v>
+        <v>88</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.85</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="4">
+    </row>
+    <row r="42" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="5">
         <v>0.75</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B44" s="10">
         <f>12/(12+2*16)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B45" s="10">
         <v>3.6669999999999998</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B46" s="10">
         <v>2.3332999999999999</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B47" s="10">
         <v>1.3332999999999999</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B48" s="10">
         <v>0.36499999999999999</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B49" s="15">
         <v>3600</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="14" t="s">
+      <c r="C49" s="16"/>
+      <c r="D49" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+    <row r="50" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1">
         <v>0.27777800000000002</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B51" s="14">
         <v>453</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D51" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="B51" s="14">
-        <f>1000/1.13</f>
-        <v>884.95575221238948</v>
-      </c>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="B52" s="14">
         <f>1000/1.13</f>
@@ -1913,9 +1941,9 @@
       </c>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="14">
         <f>1000/1.13</f>
@@ -1923,23 +1951,19 @@
       </c>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="14">
+        <f>1000/1.13</f>
+        <v>884.95575221238948</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B54" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="B55" s="21">
         <v>3.058333333333333E-3</v>
@@ -1951,9 +1975,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B56" s="21">
         <v>3.058333333333333E-3</v>
@@ -1965,9 +1989,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="21">
         <v>3.058333333333333E-3</v>
@@ -1979,9 +2003,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B58" s="21">
         <v>3.058333333333333E-3</v>
@@ -1993,9 +2017,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="21">
         <v>3.058333333333333E-3</v>
@@ -2007,9 +2031,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B60" s="21">
         <v>3.058333333333333E-3</v>
@@ -2021,9 +2045,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="21">
         <v>3.058333333333333E-3</v>
@@ -2035,9 +2059,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" s="21">
         <v>3.058333333333333E-3</v>
@@ -2049,9 +2073,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="21">
         <v>3.058333333333333E-3</v>
@@ -2063,9 +2087,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="21">
         <v>3.058333333333333E-3</v>
@@ -2077,121 +2101,124 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B66" s="21">
         <v>-999</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B67" s="21">
         <v>3.058333333333333E-3</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B67" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="B68" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B72" s="21">
-        <f>[1]Sheet1!$B$10/4</f>
-        <v>6.9500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="B73" s="21">
         <f>[1]Sheet1!$B$10/4</f>
         <v>6.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="21">
         <f>[1]Sheet1!$B$10/4</f>
         <v>6.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="21">
         <f>[1]Sheet1!$B$10/4</f>
         <v>6.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="21">
+        <f>[1]Sheet1!$B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B76" s="21">
-        <v>-999</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="B77" s="21">
         <v>-999</v>
@@ -2200,9 +2227,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="21">
         <v>-999</v>
@@ -2211,9 +2238,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" s="21">
         <v>-999</v>
@@ -2222,9 +2249,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="21">
         <v>-999</v>
@@ -2233,9 +2260,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81" s="21">
         <v>-999</v>
@@ -2244,115 +2271,115 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="21">
+        <v>-999</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B83" s="22">
         <v>0.45</v>
-      </c>
-      <c r="C82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="22">
-        <v>0.35</v>
       </c>
       <c r="C83" t="s">
         <v>122</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="22">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="C84" t="s">
         <v>122</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B85" s="22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C85" t="s">
         <v>122</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B86" s="22">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="C86" t="s">
         <v>122</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B87" s="22">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C87" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D87" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="22">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B89" s="22">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C89" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90" s="22">
         <v>0</v>
@@ -2361,39 +2388,35 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="19">
-        <v>0.88</v>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="22">
+        <v>0</v>
       </c>
       <c r="C91" t="s">
         <v>122</v>
       </c>
-      <c r="D91" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" s="20"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92" s="19">
-        <v>0.06</v>
+        <v>0.88</v>
       </c>
       <c r="C92" t="s">
         <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E92" s="20"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B93" s="19">
         <v>0.06</v>
@@ -2402,24 +2425,28 @@
         <v>122</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94" s="22">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="B94" s="19">
+        <v>0.06</v>
       </c>
       <c r="C94" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B95" s="22">
         <v>0</v>
@@ -2428,9 +2455,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B96" s="22">
         <v>0</v>
@@ -2439,156 +2466,156 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="22">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>132</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>150</v>
-      </c>
-      <c r="C97" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" t="s">
-        <v>131</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98">
-        <v>800</v>
       </c>
       <c r="C98" t="s">
         <v>125</v>
       </c>
       <c r="D98" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99">
+        <v>800</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" t="s">
         <v>126</v>
       </c>
-      <c r="E98" s="20"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>2000</v>
-      </c>
-      <c r="C99" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" t="s">
-        <v>129</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B100">
-        <v>4272</v>
       </c>
       <c r="C100" t="s">
         <v>127</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101">
-        <v>11374</v>
+        <v>4272</v>
       </c>
       <c r="C101" t="s">
         <v>127</v>
       </c>
       <c r="D101" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102">
+        <v>11374</v>
+      </c>
+      <c r="C102" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="22">
+      <c r="B103" s="22">
         <v>2521</v>
-      </c>
-      <c r="C102" t="s">
-        <v>125</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="22">
-        <v>800</v>
       </c>
       <c r="C103" t="s">
         <v>125</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B104" s="22">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C104" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D104" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B105" s="22">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C105" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B106" s="22">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C106" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D106" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B107" s="22">
         <v>0</v>
@@ -2597,88 +2624,88 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="22">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>169</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>4272</v>
-      </c>
-      <c r="C108" t="s">
-        <v>127</v>
-      </c>
-      <c r="D108" t="s">
-        <v>130</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>165</v>
-      </c>
-      <c r="B109">
-        <v>11374</v>
       </c>
       <c r="C109" t="s">
         <v>127</v>
       </c>
       <c r="D109" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B110">
-        <v>2000</v>
+        <v>11374</v>
       </c>
       <c r="C110" t="s">
         <v>127</v>
       </c>
       <c r="D110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B111">
-        <v>4272</v>
+        <v>2000</v>
       </c>
       <c r="C111" t="s">
         <v>127</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112">
+        <v>4272</v>
+      </c>
+      <c r="C112" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B112" s="22">
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="B113" s="22">
         <v>0</v>
@@ -2687,9 +2714,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B114" s="22">
         <v>0</v>
@@ -2698,263 +2725,285 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" s="22">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B116" s="5">
         <f>[2]ByCompound!$B$44/100</f>
         <v>0.88099735549678881</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B117" s="5">
         <f>[2]ByCompound!$C$44/100</f>
         <v>0.1038911975821685</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B118" s="5">
         <f>[2]ByCompound!$D$44/100</f>
         <v>1.5111446921042691E-2</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B119" s="5">
         <f>[2]ByCompound!$B$50/100</f>
         <v>0.94752186588921294</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B120" s="5">
         <f>[2]ByCompound!$C$50/100</f>
         <v>4.3731778425655982E-2</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B121" s="5">
         <f>[2]ByCompound!$D$50/100</f>
         <v>8.7463556851311956E-3</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B122" s="5">
         <f>[2]ByCompound!$B$47/100</f>
         <v>0.97968980797636629</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B123" s="5">
         <f>[2]ByCompound!$C$47/100</f>
         <v>1.8463810930576068E-2</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B124" s="5">
         <f>[2]ByCompound!$D$47/100</f>
         <v>1.846381093057607E-3</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B125" s="5">
         <v>5.35</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B125" s="5">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B126" s="5">
-        <v>0.12</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B127" s="23">
+      <c r="B128" s="23">
         <f>2.13*10^9</f>
         <v>2130000000</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C128" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B129" s="5">
         <v>360</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C129" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B130" s="5">
         <v>0.35</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E129" s="24" t="s">
+      <c r="E130" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B131" s="5">
         <v>0.27</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B132" s="5">
         <v>0.42</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B132" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="B133" s="5">
         <v>0.33</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B134" s="25">
+      <c r="B135" s="25">
         <v>3.73E-2</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C135" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B136" s="5">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
-    <hyperlink ref="E129" r:id="rId2" xr:uid="{CA570361-8F15-4169-8C6F-BC3B21E98FBB}"/>
+    <hyperlink ref="E22" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
+    <hyperlink ref="E130" r:id="rId2" xr:uid="{CA570361-8F15-4169-8C6F-BC3B21E98FBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/cbrunner/Parameters/Parameters_Biophysical.xlsx
+++ b/cbrunner/Parameters/Parameters_Biophysical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2B711-0B3D-43C6-91FF-864E8342A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9108801B-2C7A-4E45-975E-7FF6F0AEF64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="238">
   <si>
     <t>Units</t>
   </si>
@@ -66,15 +66,6 @@
     <t>CO2 equivalent radiative forcing of CH4</t>
   </si>
   <si>
-    <t>GWP_CH4_AR5</t>
-  </si>
-  <si>
-    <t>GWP_N2O_AR5</t>
-  </si>
-  <si>
-    <t>IPCC 2014</t>
-  </si>
-  <si>
     <t>EF_N2O_fromCO2</t>
   </si>
   <si>
@@ -87,27 +78,12 @@
     <t>Emission factor for nitrous oxide</t>
   </si>
   <si>
-    <t>GWP_CO_AR5</t>
-  </si>
-  <si>
     <t>CO2 equivalent radiative forcing of CO</t>
   </si>
   <si>
     <t>IPCC 2014, Chapter 8</t>
   </si>
   <si>
-    <t>GWP_CH4_AR4</t>
-  </si>
-  <si>
-    <t>IPCC 2007</t>
-  </si>
-  <si>
-    <t>GWP_N2O_AR4</t>
-  </si>
-  <si>
-    <t>CombFrac_CO2</t>
-  </si>
-  <si>
     <t>Combusion emission fraction as CO2</t>
   </si>
   <si>
@@ -117,12 +93,6 @@
     <t>Combusion emission fraction as CO</t>
   </si>
   <si>
-    <t>CombFrac_CH4</t>
-  </si>
-  <si>
-    <t>CombFrac_CO</t>
-  </si>
-  <si>
     <t>Ratio_CO2_to_C</t>
   </si>
   <si>
@@ -210,9 +180,6 @@
     <t>Emission Intensity Textile</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>GJ/t</t>
   </si>
   <si>
@@ -237,9 +204,6 @@
     <t>Carbon Content Wood</t>
   </si>
   <si>
-    <t>Density Wood</t>
-  </si>
-  <si>
     <t>Ratio MWh per GJ</t>
   </si>
   <si>
@@ -333,15 +297,6 @@
     <t>EI Site Prep</t>
   </si>
   <si>
-    <t>EI Sowing</t>
-  </si>
-  <si>
-    <t>EI Planting</t>
-  </si>
-  <si>
-    <t>EI Surveying</t>
-  </si>
-  <si>
     <t>EI Hauling Logs To Mill</t>
   </si>
   <si>
@@ -447,9 +402,6 @@
     <t>See Literature Review Tabel</t>
   </si>
   <si>
-    <t>See Literature Review Table</t>
-  </si>
-  <si>
     <t>tH2O/tLumber</t>
   </si>
   <si>
@@ -627,9 +579,6 @@
     <t>ppmv</t>
   </si>
   <si>
-    <t>Atmospheric Density CO2</t>
-  </si>
-  <si>
     <t>https://iea.blob.core.windows.net/assets/1028bee0-2da1-4d68-8b0a-9e5e03e93690/essentials3.pdf</t>
   </si>
   <si>
@@ -697,6 +646,108 @@
   </si>
   <si>
     <t>Area of the earth's surface</t>
+  </si>
+  <si>
+    <t>GWP_CH4</t>
+  </si>
+  <si>
+    <t>ECCC 2024 National GHG Inventory Table 1-1</t>
+  </si>
+  <si>
+    <t>GWP_N2O</t>
+  </si>
+  <si>
+    <t>GWP_CO</t>
+  </si>
+  <si>
+    <t>Density Wood Standard</t>
+  </si>
+  <si>
+    <t>Density Atmospheric CO2</t>
+  </si>
+  <si>
+    <t>Combustion Fraction CO2</t>
+  </si>
+  <si>
+    <t>Combustion Fraction CH4</t>
+  </si>
+  <si>
+    <t>Combustion Fraction CO</t>
+  </si>
+  <si>
+    <t>See Emission Intensities Workbook</t>
+  </si>
+  <si>
+    <t>Carbon content of natural gaas</t>
+  </si>
+  <si>
+    <t>Carbon content of oil</t>
+  </si>
+  <si>
+    <t>Carbon content of coal</t>
+  </si>
+  <si>
+    <t>Density Natural Gas</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>Density of natural gas at standard temperature</t>
+  </si>
+  <si>
+    <t>Perry, Robert; Chilton, Cecil, eds. (1973). Chemical Engineers' Handbook. pp. 9–12.</t>
+  </si>
+  <si>
+    <t>Kendall, Alissa; McPherson, E. Gregory. 2012</t>
+  </si>
+  <si>
+    <t>Trees Composted Per Tree Planted</t>
+  </si>
+  <si>
+    <t>EI Sowing (From Volume)</t>
+  </si>
+  <si>
+    <t>EI Planting (From Volume)</t>
+  </si>
+  <si>
+    <t>tCO2e/5 gallon tree</t>
+  </si>
+  <si>
+    <t>EI Surveying (By Volume)</t>
+  </si>
+  <si>
+    <t>EI Planting (By Hectare Planted)</t>
+  </si>
+  <si>
+    <t>tCO2e/ha</t>
+  </si>
+  <si>
+    <t>Area Surveyed Per Area Planted</t>
+  </si>
+  <si>
+    <t>ha/ha</t>
+  </si>
+  <si>
+    <t>EI Surveying (BY Hectare Surveyed)</t>
+  </si>
+  <si>
+    <t>Awaiting results of survey</t>
+  </si>
+  <si>
+    <t>EI Sowing (By Tree Sown)</t>
+  </si>
+  <si>
+    <t>Nano Watts per Watt</t>
+  </si>
+  <si>
+    <t>Square meters per Hectare</t>
+  </si>
+  <si>
+    <t>m2 ha-1</t>
+  </si>
+  <si>
+    <t>nW W-1</t>
   </si>
 </sst>
 </file>
@@ -1218,13 +1269,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B131" sqref="B131"/>
+      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,10 +1290,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>0</v>
@@ -1256,1754 +1307,1840 @@
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B2" s="26">
         <v>510000000000000</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="B3" s="17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="B4" s="17">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="B5" s="17">
-        <v>298</v>
+        <v>3.3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="17">
-        <v>265</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="17">
-        <v>3.3</v>
+        <v>55</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.7000000000000001E-4</v>
+        <v>76</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.85</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.9</v>
+        <v>77</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="B11" s="10">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.43</v>
+      <c r="A12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="B13" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>49</v>
+        <v>0.09</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="B14" s="10">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>139</v>
+      <c r="A15" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B16" s="10">
-        <v>55</v>
+        <v>2.4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="10">
-        <v>3.8300000000000001E-2</v>
+        <v>209</v>
+      </c>
+      <c r="B17" s="23">
+        <f>2.13*10^9</f>
+        <v>2130000000</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="10">
-        <v>44</v>
+        <v>157</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0.1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>59</v>
+        <v>122</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="10">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="10">
-        <v>18</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" s="10">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B23" s="10">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B24" s="10">
-        <v>49.87</v>
+        <v>9</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B25" s="10">
-        <v>282.7</v>
+        <v>18</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B26" s="10">
-        <v>68.37</v>
+        <v>19.5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B27" s="10">
-        <v>70.62</v>
+        <v>130</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" s="10">
+        <v>49.87</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10">
+        <v>282.7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="10">
+        <v>68.37</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="10">
+        <v>70.62</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="10">
         <f>93.33+2.24</f>
         <v>95.57</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="C32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10">
         <f>82.11+19.07</f>
         <v>101.18</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="10">
-        <f>72.5/1000</f>
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="10">
-        <v>0.7</v>
-      </c>
       <c r="C33" s="11" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B34" s="10">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B35" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="10">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="10">
         <f>AVERAGE(6.3,67.1)/1000</f>
         <v>3.6699999999999997E-2</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="18">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="18">
-        <v>7.3852646386495498E-6</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="18">
-        <v>1.5215355805243445E-5</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="18">
-        <v>6.3999999999999997E-5</v>
-      </c>
       <c r="C39" s="11" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="6">
-        <v>0.5</v>
+        <v>124</v>
+      </c>
+      <c r="B40" s="18">
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="6">
-        <v>0.85</v>
+        <v>158</v>
+      </c>
+      <c r="B41" s="18">
+        <v>7.3852646386495498E-6</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="18">
+        <v>1.5215355805243445E-5</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="18">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B48" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="21">
+        <f>4.6/1000</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="21">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="21">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="21">
+        <v>3.058333333333333E-3</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="21">
+        <f>[1]Sheet1!$B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="21">
+        <f>[1]Sheet1!$B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="21">
+        <f>[1]Sheet1!$B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="21">
+        <f>[1]Sheet1!$B$10/4</f>
+        <v>6.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="21">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="21">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="21">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="21">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="21">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="21">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="5">
+        <f>[2]ByCompound!$B$44/100</f>
+        <v>0.88099735549678881</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="5">
+        <f>[2]ByCompound!$C$44/100</f>
+        <v>0.1038911975821685</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="5">
+        <f>[2]ByCompound!$D$44/100</f>
+        <v>1.5111446921042691E-2</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="5">
+        <f>[2]ByCompound!$B$50/100</f>
+        <v>0.94752186588921294</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="5">
+        <f>[2]ByCompound!$C$50/100</f>
+        <v>4.3731778425655982E-2</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="5">
+        <f>[2]ByCompound!$D$50/100</f>
+        <v>8.7463556851311956E-3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="5">
+        <f>[2]ByCompound!$B$47/100</f>
+        <v>0.97968980797636629</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="5">
+        <f>[2]ByCompound!$C$47/100</f>
+        <v>1.8463810930576068E-2</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="5">
+        <f>[2]ByCompound!$D$47/100</f>
+        <v>1.846381093057607E-3</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B89" s="10">
         <f>12/(12+2*16)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="10">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="10">
         <v>3.6669999999999998</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="10">
+      <c r="D90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="10">
         <v>2.3332999999999999</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="10">
+      <c r="D91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="10">
         <v>1.3332999999999999</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="10">
+    <row r="93" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="10">
         <v>0.36499999999999999</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C93" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="15">
+        <v>3600</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="15">
-        <v>3600</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="14" t="s">
+      <c r="E94" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.27777800000000002</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="14">
+        <v>453</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.27777800000000002</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="14">
-        <v>453</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="14">
+      <c r="E96" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="14">
         <f>1000/1.13</f>
         <v>884.95575221238948</v>
       </c>
-      <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="14">
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="14">
         <f>1000/1.13</f>
         <v>884.95575221238948</v>
       </c>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="14">
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="14">
         <f>1000/1.13</f>
         <v>884.95575221238948</v>
       </c>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66" s="21">
-        <v>-999</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="21">
-        <v>3.058333333333333E-3</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="21">
-        <f>[1]Sheet1!$B$10/4</f>
-        <v>6.9500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B74" s="21">
-        <f>[1]Sheet1!$B$10/4</f>
-        <v>6.9500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="21">
-        <f>[1]Sheet1!$B$10/4</f>
-        <v>6.9500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="21">
-        <f>[1]Sheet1!$B$10/4</f>
-        <v>6.9500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="21">
-        <v>-999</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="21">
-        <v>-999</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="21">
-        <v>-999</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="21">
-        <v>-999</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="21">
-        <v>-999</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B82" s="21">
-        <v>-999</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B83" s="22">
-        <v>0.45</v>
-      </c>
-      <c r="C83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="22">
-        <v>0.35</v>
-      </c>
-      <c r="C84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="C85" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="22">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B89" s="22">
-        <v>0.03</v>
-      </c>
-      <c r="C89" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B90" s="22">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B91" s="22">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="19">
-        <v>0.88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" s="20"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="C93" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" t="s">
-        <v>123</v>
-      </c>
-      <c r="E93" s="20"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>161</v>
-      </c>
-      <c r="B94" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="C94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="20"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="22">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="22">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>172</v>
-      </c>
-      <c r="B97" s="22">
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>132</v>
-      </c>
-      <c r="B98">
-        <v>150</v>
-      </c>
-      <c r="C98" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" t="s">
-        <v>131</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>168</v>
-      </c>
-      <c r="B99">
-        <v>800</v>
-      </c>
-      <c r="C99" t="s">
-        <v>125</v>
-      </c>
-      <c r="D99" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" s="20"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B100">
-        <v>2000</v>
+        <v>140</v>
+      </c>
+      <c r="B100" s="22">
+        <v>0.45</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B101">
-        <v>4272</v>
+        <v>141</v>
+      </c>
+      <c r="B101" s="22">
+        <v>0.35</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" t="s">
-        <v>130</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B102">
-        <v>11374</v>
+        <v>142</v>
+      </c>
+      <c r="B102" s="22">
+        <v>0.05</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
-      </c>
-      <c r="D102" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B103" s="22">
-        <v>2521</v>
+        <v>0.1</v>
       </c>
       <c r="C103" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B104" s="22">
-        <v>800</v>
+        <v>0.02</v>
       </c>
       <c r="C104" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B105" s="22">
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B106" s="22">
-        <v>800</v>
+        <v>0.03</v>
       </c>
       <c r="C106" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B107" s="22">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B108" s="22">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109">
-        <v>4272</v>
+        <v>143</v>
+      </c>
+      <c r="B109" s="19">
+        <v>0.88</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>130</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E109" s="20"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>165</v>
-      </c>
-      <c r="B110">
-        <v>11374</v>
+        <v>144</v>
+      </c>
+      <c r="B110" s="19">
+        <v>0.06</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E110" s="20"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111">
-        <v>2000</v>
+        <v>145</v>
+      </c>
+      <c r="B111" s="19">
+        <v>0.06</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D111" t="s">
-        <v>129</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E111" s="20"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>167</v>
-      </c>
-      <c r="B112">
-        <v>4272</v>
+        <v>154</v>
+      </c>
+      <c r="B112" s="22">
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
-      </c>
-      <c r="D112" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>177</v>
+      <c r="A113" t="s">
+        <v>155</v>
       </c>
       <c r="B113" s="22">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>178</v>
+      <c r="A114" t="s">
+        <v>156</v>
       </c>
       <c r="B114" s="22">
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B115" s="22">
-        <v>0</v>
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="D115" t="s">
+        <v>116</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B116" s="5">
-        <f>[2]ByCompound!$B$44/100</f>
-        <v>0.88099735549678881</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="A116" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116">
+        <v>800</v>
+      </c>
+      <c r="C116" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="20"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B117" s="5">
-        <f>[2]ByCompound!$C$44/100</f>
-        <v>0.1038911975821685</v>
+        <v>146</v>
+      </c>
+      <c r="B117">
+        <v>2000</v>
+      </c>
+      <c r="C117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B118" s="5">
-        <f>[2]ByCompound!$D$44/100</f>
-        <v>1.5111446921042691E-2</v>
+        <v>147</v>
+      </c>
+      <c r="B118">
+        <v>4272</v>
+      </c>
+      <c r="C118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" t="s">
+        <v>115</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B119" s="5">
-        <f>[2]ByCompound!$B$50/100</f>
-        <v>0.94752186588921294</v>
+        <v>148</v>
+      </c>
+      <c r="B119">
+        <v>11374</v>
+      </c>
+      <c r="C119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" t="s">
+        <v>113</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B120" s="5">
-        <f>[2]ByCompound!$C$50/100</f>
-        <v>4.3731778425655982E-2</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>189</v>
+        <v>132</v>
+      </c>
+      <c r="B120" s="22">
+        <v>2521</v>
+      </c>
+      <c r="C120" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B121" s="5">
-        <f>[2]ByCompound!$D$50/100</f>
-        <v>8.7463556851311956E-3</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>189</v>
+        <v>133</v>
+      </c>
+      <c r="B121" s="22">
+        <v>800</v>
+      </c>
+      <c r="C121" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B122" s="5">
-        <f>[2]ByCompound!$B$47/100</f>
-        <v>0.97968980797636629</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>189</v>
+        <v>134</v>
+      </c>
+      <c r="B122" s="22">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B123" s="5">
-        <f>[2]ByCompound!$C$47/100</f>
-        <v>1.8463810930576068E-2</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>189</v>
+        <v>135</v>
+      </c>
+      <c r="B123" s="22">
+        <v>800</v>
+      </c>
+      <c r="C123" t="s">
+        <v>110</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B124" s="5">
-        <f>[2]ByCompound!$D$47/100</f>
-        <v>1.846381093057607E-3</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>189</v>
+        <v>136</v>
+      </c>
+      <c r="B124" s="22">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B125" s="5">
-        <v>5.35</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>193</v>
+        <v>137</v>
+      </c>
+      <c r="B125" s="22">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B126" s="5">
-        <v>3.5999999999999997E-2</v>
+      <c r="A126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126">
+        <v>4272</v>
+      </c>
+      <c r="C126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" t="s">
+        <v>115</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B127" s="5">
-        <v>0.12</v>
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127">
+        <v>11374</v>
+      </c>
+      <c r="C127" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127" t="s">
+        <v>113</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B128" s="23">
-        <f>2.13*10^9</f>
-        <v>2130000000</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>194</v>
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128">
+        <v>2000</v>
+      </c>
+      <c r="C128" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" t="s">
+        <v>114</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B129" s="5">
-        <v>360</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>196</v>
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129">
+        <v>4272</v>
+      </c>
+      <c r="C129" t="s">
+        <v>112</v>
+      </c>
+      <c r="D129" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B130" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>198</v>
+        <v>161</v>
+      </c>
+      <c r="B130" s="22">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B131" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>201</v>
+        <v>162</v>
+      </c>
+      <c r="B131" s="22">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B132" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>199</v>
+        <v>163</v>
+      </c>
+      <c r="B132" s="22">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B133" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>208</v>
+        <v>5.35</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="B134" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>200</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B135" s="25">
-        <v>3.73E-2</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>211</v>
+        <v>176</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0.12</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B136" s="5">
-        <v>0.85</v>
+        <v>193</v>
+      </c>
+      <c r="B136" s="25">
+        <v>3.73E-2</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B137" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" s="5">
         <v>0.01</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>216</v>
+      <c r="E138" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B139" s="5">
+        <v>360</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B141" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B143" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
-    <hyperlink ref="E130" r:id="rId2" xr:uid="{CA570361-8F15-4169-8C6F-BC3B21E98FBB}"/>
+    <hyperlink ref="E26" r:id="rId1" location=":~:text=The%20%22caloric%20content%22%20(energy,19%20to%2020%20MJ%2Fkg." xr:uid="{BC12505D-14C3-48E6-B915-05C67CB41FD5}"/>
+    <hyperlink ref="E84" r:id="rId2" xr:uid="{CA570361-8F15-4169-8C6F-BC3B21E98FBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
